--- a/TestData/User.xlsx
+++ b/TestData/User.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nidhi\Desktop\persistent\orangehrm-selenium-automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCD4227-F4A9-446C-9940-17AC07B4F315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892D6E2-AA44-4CA5-9FC1-C9675FA4E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Admin</t>
   </si>
@@ -46,10 +46,25 @@
     <t>N!dhi@123</t>
   </si>
   <si>
-    <t>Mexican1</t>
-  </si>
-  <si>
-    <t>Mexican2</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Pakistani12</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>Indian12345</t>
   </si>
 </sst>
 </file>
@@ -378,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,15 +407,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -408,37 +423,47 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{2CF01246-2BFC-4EF6-857C-7EBC6DC540B6}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{2052A5D3-8BF5-4E46-87D2-B98DAEA85351}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{CB2DDEDC-DA8D-4FF9-8489-0EADA7715215}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{27C17B07-7596-4E5B-B47F-DD81C3FCBC2D}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{C52EEDEB-614D-43E6-ADBE-FF5E6782A679}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2CF01246-2BFC-4EF6-857C-7EBC6DC540B6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2052A5D3-8BF5-4E46-87D2-B98DAEA85351}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{CB2DDEDC-DA8D-4FF9-8489-0EADA7715215}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{27C17B07-7596-4E5B-B47F-DD81C3FCBC2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -446,23 +471,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC8B55E-8B68-44C7-8A2A-5E9FCF8096B4}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/User.xlsx
+++ b/TestData/User.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nidhi\Desktop\persistent\orangehrm-selenium-automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892D6E2-AA44-4CA5-9FC1-C9675FA4E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5E1FE0-88FD-4522-96AE-A2C7928DE641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Add_Nationality" sheetId="2" r:id="rId2"/>
+    <sheet name="Mail_Configuration" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Admin</t>
   </si>
@@ -61,10 +62,16 @@
     <t>abc</t>
   </si>
   <si>
-    <t>asdfg</t>
-  </si>
-  <si>
-    <t>Indian12345</t>
+    <t>patninidhi98@gmail.com</t>
+  </si>
+  <si>
+    <t>patninidhi98@gmail</t>
+  </si>
+  <si>
+    <t>Indian123</t>
+  </si>
+  <si>
+    <t>American</t>
   </si>
 </sst>
 </file>
@@ -471,10 +478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC8B55E-8B68-44C7-8A2A-5E9FCF8096B4}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,9 +509,6 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -513,6 +517,9 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -522,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,28 +562,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497AADEF-992E-4E97-96E1-7ACC6C0E8429}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F8D93F05-F6FF-4261-9671-481169D4E8DD}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A7EE68DB-BE31-44D8-A020-EBD9EA2C0978}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>